--- a/src/main/resources/data/foods.xlsx
+++ b/src/main/resources/data/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepos\JavaRepos\SoftwareArchitecture\FoodCounter\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A96037-4E3A-43D4-8555-CE0C3218CF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03777733-EE8C-4657-8CE2-529362981E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,26 @@
   </si>
   <si>
     <t>热量(kcal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白粉一勺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰芳园冻柠茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,9 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -456,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -474,7 +497,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -494,7 +517,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -514,7 +537,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -534,7 +557,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -554,7 +577,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -574,7 +597,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -594,7 +617,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -614,7 +637,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -634,7 +657,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -654,7 +677,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -674,7 +697,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -694,7 +717,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -714,7 +737,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -734,7 +757,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -754,7 +777,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -774,7 +797,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -794,7 +817,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -814,7 +837,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -834,7 +857,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -854,7 +877,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -874,7 +897,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -894,7 +917,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -914,7 +937,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -934,7 +957,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -954,7 +977,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -974,7 +997,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -994,7 +1017,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1014,7 +1037,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1031,6 +1054,86 @@
       </c>
       <c r="F28" s="1">
         <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/foods.xlsx
+++ b/src/main/resources/data/foods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepos\JavaRepos\SoftwareArchitecture\FoodCounter\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepos\JavaRepos\SoftwareArchitecture\FoodCalculator\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03777733-EE8C-4657-8CE2-529362981E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13778EF9-95F5-47AF-A681-0719601F9852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,14 +140,6 @@
   </si>
   <si>
     <t>兰芳园冻柠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1116,26 +1108,6 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
